--- a/biology/Zoologie/Crabier_à_ventre_roux/Crabier_à_ventre_roux.xlsx
+++ b/biology/Zoologie/Crabier_à_ventre_roux/Crabier_à_ventre_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crabier_%C3%A0_ventre_roux</t>
+          <t>Crabier_à_ventre_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardeola rufiventris
 Le Crabier à ventre roux (Ardeola rufiventris) est une espèce d'oiseau de la famille des ardéidés qui se retrouve en Afrique subsaharienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crabier_%C3%A0_ventre_roux</t>
+          <t>Crabier_à_ventre_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce crabier se retrouve en Ouganda, au Kenya, en Tanzanie, au Rwanda, au Burundi, en République démocratique du Congo, en Angola, en Zambie, au Malawi et au Mozambique.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crabier_%C3%A0_ventre_roux</t>
+          <t>Crabier_à_ventre_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les plaines herbeuses périodiquement inondées, les roselières et les rives des plans d’eau.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crabier_%C3%A0_ventre_roux</t>
+          <t>Crabier_à_ventre_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crabier à ventre roux niche dans les roseaux (Phragmites, Cyperus) ou dans un arbre ou un arbuste (Aeschynomene, Ficus, Acacia) souvent avec la base inondée.  Il niche dans des colonies de 6 à 30 couples, parfois plus.  Les colonies sont parfois mêlées avec d’autres espèces, comme le Héron pourpré, le Marabout d'Afrique ou le Tantale ibis.  Le nid est généralement placé entre 0,5 à 4 mètres au-dessus de l’eau.  Le nombre d’œufs varie entre 1 et 4.
 </t>
